--- a/biology/Médecine/La_Couleur_du_sang/La_Couleur_du_sang.xlsx
+++ b/biology/Médecine/La_Couleur_du_sang/La_Couleur_du_sang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Couleur du sang (titre original : Miss Evers' Boys) est un téléfilm américain sorti en 1997, réalisé par Joseph Sargent  mettant en vedette Alfre Woodard et Laurence Fishburne, basé sur l'histoire vraie de l'expérience de Tuskegee. Le téléfilm est l'adaptation de la pièce de théâtre de 1992 écrite par David Feldshuh. Le film a été nommé pour onze Emmy Awards et a remporté quatre catégories, y compris celle du meilleur film de télévision.
 En France, le téléfilm a été diffusé en version originale sous-titrée en 1999 sur Paris Première.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film raconte l'histoire de l'expérience de Tuskegee, une expérience médicale secrète du gouvernement fédéral américain sur des Afro-Américains pauvres dans les années 1932-1972, conçue pour étudier les effets du non-traitement contre la syphilis. L'histoire est racontée du point de vue de l'infirmière Eunice Evers (Alfre Woodard) qui est bien consciente de l'absence de traitement, mais estime que son rôle est de consoler les hommes impliqués, dont beaucoup sont ses amis proches .
 En 1932, elle est envoyée pour aider le Dr Brodus (Joe Morton) et le Dr Douglas (Craig Sheffer) pour les aider à « traiter » les hommes noirs ruraux dans la ville de Tuskegee, Alabama. Elle est envoyée autour de la ville pour dire aux gens que le gouvernement finance leur traitement gratuitement, mais à leur insu, le gouvernement va bientôt lancer une étude qui consiste à ne leur donner aucune forme de traitement réel.
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -572,7 +588,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Miss Evers' Boys
@@ -593,7 +611,7 @@
 Genre : Drame
 Durée : 118 minutes
 Date de sortie :
-États-Unis : 22 février 1997 [1]</t>
+États-Unis : 22 février 1997 </t>
         </is>
       </c>
     </row>
@@ -621,7 +639,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Emmy Awards 1997 :
 Meilleure actrice dans une mini-série ou un téléfilm : Alfre Woodard
